--- a/Supplementary_data_S1.xlsx
+++ b/Supplementary_data_S1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/grire943/Desktop/Black Robin Manuscript 2023/Supplementary data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/grire943/Desktop/Black Robin Manuscript BMC 2024/Black Robin Manuscript 2023/Supplementary data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E49F1287-5588-3A4D-96D5-2E8D925E1094}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63344E0B-BF93-7248-B916-7100AB4F7657}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4440" yWindow="5660" windowWidth="23020" windowHeight="16940" xr2:uid="{023D86DF-3365-FC4B-8E73-3445EA01A274}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="Viral polymerases" sheetId="1" r:id="rId1"/>
     <sheet name="Non-polymerase viral proteins" sheetId="2" r:id="rId2"/>
     <sheet name="PA of non-viral microbes" sheetId="3" r:id="rId3"/>
+    <sheet name="Sequencing Summary" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1363" uniqueCount="589">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1388" uniqueCount="594">
   <si>
     <t>NCBI.seq</t>
   </si>
@@ -1805,6 +1806,21 @@
   </si>
   <si>
     <t>OR900098</t>
+  </si>
+  <si>
+    <t>Number.of.reads</t>
+  </si>
+  <si>
+    <t>Number.of.transcripts</t>
+  </si>
+  <si>
+    <t>Proportion.reads.viral</t>
+  </si>
+  <si>
+    <t>Percentage.reads.viral</t>
+  </si>
+  <si>
+    <t>Median</t>
   </si>
 </sst>
 </file>
@@ -1929,9 +1945,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1969,7 +1985,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2075,7 +2091,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2217,7 +2233,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -7377,4 +7393,380 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A96FA87-3FE8-E240-A0F6-A1332C8C634F}">
+  <dimension ref="A1:E21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>591</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="B2">
+        <v>73434233</v>
+      </c>
+      <c r="C2">
+        <v>568670</v>
+      </c>
+      <c r="D2">
+        <v>6.4402280000000001E-3</v>
+      </c>
+      <c r="E2" s="3">
+        <v>6.4402280000000001E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B3">
+        <v>56965566</v>
+      </c>
+      <c r="C3">
+        <v>576293</v>
+      </c>
+      <c r="D3">
+        <v>1.488685E-3</v>
+      </c>
+      <c r="E3" s="3">
+        <v>1.488685E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4">
+        <v>65980333</v>
+      </c>
+      <c r="C4">
+        <v>1031644</v>
+      </c>
+      <c r="D4">
+        <v>1.1634200000000001E-4</v>
+      </c>
+      <c r="E4" s="3">
+        <v>1.1634200000000001E-4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="B5">
+        <v>56092106</v>
+      </c>
+      <c r="C5">
+        <v>408849</v>
+      </c>
+      <c r="D5">
+        <v>1.2224736999999999E-2</v>
+      </c>
+      <c r="E5" s="3">
+        <v>1.2224736999999999E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B6">
+        <v>71422281</v>
+      </c>
+      <c r="C6">
+        <v>625211</v>
+      </c>
+      <c r="D6">
+        <v>9.2495990000000007E-3</v>
+      </c>
+      <c r="E6" s="3">
+        <v>9.2495990000000007E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7">
+        <v>65674763</v>
+      </c>
+      <c r="C7">
+        <v>691284</v>
+      </c>
+      <c r="D7">
+        <v>4.1558627000000001E-2</v>
+      </c>
+      <c r="E7" s="3">
+        <v>4.1558627000000001E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="B8">
+        <v>49013711</v>
+      </c>
+      <c r="C8">
+        <v>885688</v>
+      </c>
+      <c r="D8">
+        <v>1.46124E-4</v>
+      </c>
+      <c r="E8" s="3">
+        <v>1.46124E-4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B9">
+        <v>76228795</v>
+      </c>
+      <c r="C9">
+        <v>1114938</v>
+      </c>
+      <c r="D9">
+        <v>1.8497800000000001E-3</v>
+      </c>
+      <c r="E9" s="3">
+        <v>1.8497800000000001E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B10">
+        <v>79732781</v>
+      </c>
+      <c r="C10">
+        <v>1086272</v>
+      </c>
+      <c r="D10">
+        <v>4.8069410000000003E-3</v>
+      </c>
+      <c r="E10" s="3">
+        <v>4.8069410000000003E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11">
+        <v>68927944</v>
+      </c>
+      <c r="C11">
+        <v>1091639</v>
+      </c>
+      <c r="D11">
+        <v>2.7184779999999999E-3</v>
+      </c>
+      <c r="E11" s="3">
+        <v>2.7184779999999999E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B12">
+        <v>55283513</v>
+      </c>
+      <c r="C12">
+        <v>621357</v>
+      </c>
+      <c r="D12">
+        <v>7.0066039999999996E-3</v>
+      </c>
+      <c r="E12" s="3">
+        <v>7.0066039999999996E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B13">
+        <v>68023354</v>
+      </c>
+      <c r="C13">
+        <v>839503</v>
+      </c>
+      <c r="D13">
+        <v>2.5399540000000001E-3</v>
+      </c>
+      <c r="E13" s="3">
+        <v>2.5399540000000001E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B14">
+        <v>81211819</v>
+      </c>
+      <c r="C14">
+        <v>598741</v>
+      </c>
+      <c r="D14">
+        <v>3.8020412000000003E-2</v>
+      </c>
+      <c r="E14" s="3">
+        <v>3.8020412000000003E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B15">
+        <v>65623260</v>
+      </c>
+      <c r="C15">
+        <v>354619</v>
+      </c>
+      <c r="D15">
+        <v>0.11471621</v>
+      </c>
+      <c r="E15" s="3">
+        <v>0.11471621</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B16">
+        <v>89292921</v>
+      </c>
+      <c r="C16">
+        <v>288000</v>
+      </c>
+      <c r="D16">
+        <v>4.1905900000000001E-3</v>
+      </c>
+      <c r="E16" s="3">
+        <v>4.1905900000000001E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="B17">
+        <v>64910496</v>
+      </c>
+      <c r="C17">
+        <v>789313</v>
+      </c>
+      <c r="D17" s="2">
+        <v>2.8799999999999999E-5</v>
+      </c>
+      <c r="E17" s="3">
+        <v>2.8799999999999999E-5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="B18">
+        <v>65605588</v>
+      </c>
+      <c r="C18">
+        <v>1054771</v>
+      </c>
+      <c r="D18">
+        <v>2.3835699999999999E-4</v>
+      </c>
+      <c r="E18" s="3">
+        <v>2.3835699999999999E-4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="B19">
+        <v>64653735</v>
+      </c>
+      <c r="C19">
+        <v>220821</v>
+      </c>
+      <c r="D19">
+        <v>1.7070099999999999E-4</v>
+      </c>
+      <c r="E19" s="3">
+        <v>1.7070099999999999E-4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="B20">
+        <v>71824685</v>
+      </c>
+      <c r="C20">
+        <v>1073282</v>
+      </c>
+      <c r="D20">
+        <v>5.1959499999999997E-4</v>
+      </c>
+      <c r="E20" s="3">
+        <v>5.1959499999999997E-4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="B21">
+        <f>MEDIAN(B2:B20)</f>
+        <v>65980333</v>
+      </c>
+      <c r="C21">
+        <f t="shared" ref="C21:E21" si="0">MEDIAN(C2:C20)</f>
+        <v>691284</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="0"/>
+        <v>2.7184779999999999E-3</v>
+      </c>
+      <c r="E21" s="3">
+        <f t="shared" si="0"/>
+        <v>2.7184779999999999E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>